--- a/DateBase/orders/Nha Thu_2026-2-6.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-6.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +523,96 @@
       <c r="C11" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>865_腊梅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>4</v>
+      </c>
+      <c r="C20" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0205551010191050</v>
+        <v>02055510101910520151710555155100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-6.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-6.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +609,61 @@
       <c r="C21" t="str">
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +721,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02055510101910520151710555155100</v>
+        <v>020555101019105201517105551551016510105105</v>
       </c>
     </row>
   </sheetData>
